--- a/excel-net.xlsx
+++ b/excel-net.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchiv\Documents\Development\ML\Excel-Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D2AFE7-018A-4233-AD25-CAA536266199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731D4BAE-D237-4E20-84CC-15D244F8E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2781562B-16EF-496E-9C5F-5DDDC32CAD75}"/>
   </bookViews>
@@ -598,15 +598,6 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,6 +615,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17790,14 +17790,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4E172E-859E-44DE-B411-ACF5F82E2EF1}">
   <dimension ref="B1:Y392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="10" width="11.109375" customWidth="1"/>
+    <col min="2" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" customWidth="1"/>
     <col min="12" max="12" width="21.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.21875" style="2" bestFit="1" customWidth="1"/>
@@ -17887,17 +17888,17 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" ht="21" x14ac:dyDescent="0.4">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="1"/>
       <c r="L5" s="23" t="s">
         <v>19</v>
@@ -18699,17 +18700,17 @@
       </c>
     </row>
     <row r="31" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="62"/>
       <c r="K31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -19647,7 +19648,7 @@
     </row>
     <row r="53" spans="2:25" ht="21" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
-        <f t="shared" ref="B53:I62" si="3">B27 / MAX($B27:$I27)</f>
+        <f t="shared" ref="B53:I55" si="3">B27 / MAX($B27:$I27)</f>
         <v>9.9108027750247768E-4</v>
       </c>
       <c r="C53" s="12">
@@ -19856,17 +19857,17 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="62"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="59"/>
       <c r="K59" s="1"/>
       <c r="L59" s="31" t="s">
         <v>43</v>
@@ -20187,17 +20188,17 @@
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="2:23" ht="21" x14ac:dyDescent="0.4">
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="65"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="62"/>
       <c r="K67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
@@ -20439,20 +20440,20 @@
     </row>
     <row r="74" spans="2:23" ht="21" x14ac:dyDescent="0.3">
       <c r="K74" s="1"/>
-      <c r="L74" s="57" t="s">
+      <c r="L74" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="58"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="58"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="58"/>
-      <c r="R74" s="58"/>
-      <c r="S74" s="58"/>
-      <c r="T74" s="58"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="58"/>
-      <c r="W74" s="59"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="T74" s="64"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="65"/>
     </row>
     <row r="75" spans="2:23" ht="21" x14ac:dyDescent="0.4">
       <c r="K75" s="1"/>
@@ -21796,20 +21797,20 @@
       <c r="W105" s="42"/>
     </row>
     <row r="106" spans="11:24" ht="21" x14ac:dyDescent="0.3">
-      <c r="L106" s="57" t="s">
+      <c r="L106" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="M106" s="58"/>
-      <c r="N106" s="58"/>
-      <c r="O106" s="58"/>
-      <c r="P106" s="58"/>
-      <c r="Q106" s="58"/>
-      <c r="R106" s="58"/>
-      <c r="S106" s="58"/>
-      <c r="T106" s="58"/>
-      <c r="U106" s="58"/>
-      <c r="V106" s="58"/>
-      <c r="W106" s="59"/>
+      <c r="M106" s="64"/>
+      <c r="N106" s="64"/>
+      <c r="O106" s="64"/>
+      <c r="P106" s="64"/>
+      <c r="Q106" s="64"/>
+      <c r="R106" s="64"/>
+      <c r="S106" s="64"/>
+      <c r="T106" s="64"/>
+      <c r="U106" s="64"/>
+      <c r="V106" s="64"/>
+      <c r="W106" s="65"/>
       <c r="X106" s="3"/>
     </row>
     <row r="107" spans="11:24" ht="21" x14ac:dyDescent="0.4">
@@ -23161,20 +23162,20 @@
       <c r="W137" s="11"/>
     </row>
     <row r="138" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L138" s="57" t="s">
+      <c r="L138" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="M138" s="58"/>
-      <c r="N138" s="58"/>
-      <c r="O138" s="58"/>
-      <c r="P138" s="58"/>
-      <c r="Q138" s="58"/>
-      <c r="R138" s="58"/>
-      <c r="S138" s="58"/>
-      <c r="T138" s="58"/>
-      <c r="U138" s="58"/>
-      <c r="V138" s="58"/>
-      <c r="W138" s="59"/>
+      <c r="M138" s="64"/>
+      <c r="N138" s="64"/>
+      <c r="O138" s="64"/>
+      <c r="P138" s="64"/>
+      <c r="Q138" s="64"/>
+      <c r="R138" s="64"/>
+      <c r="S138" s="64"/>
+      <c r="T138" s="64"/>
+      <c r="U138" s="64"/>
+      <c r="V138" s="64"/>
+      <c r="W138" s="65"/>
     </row>
     <row r="139" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L139" s="30"/>
@@ -24523,20 +24524,20 @@
       <c r="W169" s="11"/>
     </row>
     <row r="170" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L170" s="57" t="s">
+      <c r="L170" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="M170" s="58"/>
-      <c r="N170" s="58"/>
-      <c r="O170" s="58"/>
-      <c r="P170" s="58"/>
-      <c r="Q170" s="58"/>
-      <c r="R170" s="58"/>
-      <c r="S170" s="58"/>
-      <c r="T170" s="58"/>
-      <c r="U170" s="58"/>
-      <c r="V170" s="58"/>
-      <c r="W170" s="59"/>
+      <c r="M170" s="64"/>
+      <c r="N170" s="64"/>
+      <c r="O170" s="64"/>
+      <c r="P170" s="64"/>
+      <c r="Q170" s="64"/>
+      <c r="R170" s="64"/>
+      <c r="S170" s="64"/>
+      <c r="T170" s="64"/>
+      <c r="U170" s="64"/>
+      <c r="V170" s="64"/>
+      <c r="W170" s="65"/>
     </row>
     <row r="171" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L171" s="30"/>
@@ -25885,20 +25886,20 @@
       <c r="W201" s="22"/>
     </row>
     <row r="202" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L202" s="57" t="s">
+      <c r="L202" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="M202" s="58"/>
-      <c r="N202" s="58"/>
-      <c r="O202" s="58"/>
-      <c r="P202" s="58"/>
-      <c r="Q202" s="58"/>
-      <c r="R202" s="58"/>
-      <c r="S202" s="58"/>
-      <c r="T202" s="58"/>
-      <c r="U202" s="58"/>
-      <c r="V202" s="58"/>
-      <c r="W202" s="59"/>
+      <c r="M202" s="64"/>
+      <c r="N202" s="64"/>
+      <c r="O202" s="64"/>
+      <c r="P202" s="64"/>
+      <c r="Q202" s="64"/>
+      <c r="R202" s="64"/>
+      <c r="S202" s="64"/>
+      <c r="T202" s="64"/>
+      <c r="U202" s="64"/>
+      <c r="V202" s="64"/>
+      <c r="W202" s="65"/>
     </row>
     <row r="203" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L203" s="30"/>
@@ -27247,20 +27248,20 @@
       <c r="W233" s="22"/>
     </row>
     <row r="234" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L234" s="57" t="s">
+      <c r="L234" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M234" s="58"/>
-      <c r="N234" s="58"/>
-      <c r="O234" s="58"/>
-      <c r="P234" s="58"/>
-      <c r="Q234" s="58"/>
-      <c r="R234" s="58"/>
-      <c r="S234" s="58"/>
-      <c r="T234" s="58"/>
-      <c r="U234" s="58"/>
-      <c r="V234" s="58"/>
-      <c r="W234" s="59"/>
+      <c r="M234" s="64"/>
+      <c r="N234" s="64"/>
+      <c r="O234" s="64"/>
+      <c r="P234" s="64"/>
+      <c r="Q234" s="64"/>
+      <c r="R234" s="64"/>
+      <c r="S234" s="64"/>
+      <c r="T234" s="64"/>
+      <c r="U234" s="64"/>
+      <c r="V234" s="64"/>
+      <c r="W234" s="65"/>
     </row>
     <row r="235" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L235" s="30"/>
@@ -28609,20 +28610,20 @@
       <c r="W265" s="22"/>
     </row>
     <row r="266" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L266" s="57" t="s">
+      <c r="L266" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M266" s="58"/>
-      <c r="N266" s="58"/>
-      <c r="O266" s="58"/>
-      <c r="P266" s="58"/>
-      <c r="Q266" s="58"/>
-      <c r="R266" s="58"/>
-      <c r="S266" s="58"/>
-      <c r="T266" s="58"/>
-      <c r="U266" s="58"/>
-      <c r="V266" s="58"/>
-      <c r="W266" s="59"/>
+      <c r="M266" s="64"/>
+      <c r="N266" s="64"/>
+      <c r="O266" s="64"/>
+      <c r="P266" s="64"/>
+      <c r="Q266" s="64"/>
+      <c r="R266" s="64"/>
+      <c r="S266" s="64"/>
+      <c r="T266" s="64"/>
+      <c r="U266" s="64"/>
+      <c r="V266" s="64"/>
+      <c r="W266" s="65"/>
     </row>
     <row r="267" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L267" s="30"/>
@@ -29971,20 +29972,20 @@
       <c r="W297" s="22"/>
     </row>
     <row r="298" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L298" s="57" t="s">
+      <c r="L298" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="M298" s="58"/>
-      <c r="N298" s="58"/>
-      <c r="O298" s="58"/>
-      <c r="P298" s="58"/>
-      <c r="Q298" s="58"/>
-      <c r="R298" s="58"/>
-      <c r="S298" s="58"/>
-      <c r="T298" s="58"/>
-      <c r="U298" s="58"/>
-      <c r="V298" s="58"/>
-      <c r="W298" s="59"/>
+      <c r="M298" s="64"/>
+      <c r="N298" s="64"/>
+      <c r="O298" s="64"/>
+      <c r="P298" s="64"/>
+      <c r="Q298" s="64"/>
+      <c r="R298" s="64"/>
+      <c r="S298" s="64"/>
+      <c r="T298" s="64"/>
+      <c r="U298" s="64"/>
+      <c r="V298" s="64"/>
+      <c r="W298" s="65"/>
     </row>
     <row r="299" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L299" s="30"/>
@@ -31333,20 +31334,20 @@
       <c r="W329" s="22"/>
     </row>
     <row r="330" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L330" s="57" t="s">
+      <c r="L330" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="M330" s="58"/>
-      <c r="N330" s="58"/>
-      <c r="O330" s="58"/>
-      <c r="P330" s="58"/>
-      <c r="Q330" s="58"/>
-      <c r="R330" s="58"/>
-      <c r="S330" s="58"/>
-      <c r="T330" s="58"/>
-      <c r="U330" s="58"/>
-      <c r="V330" s="58"/>
-      <c r="W330" s="59"/>
+      <c r="M330" s="64"/>
+      <c r="N330" s="64"/>
+      <c r="O330" s="64"/>
+      <c r="P330" s="64"/>
+      <c r="Q330" s="64"/>
+      <c r="R330" s="64"/>
+      <c r="S330" s="64"/>
+      <c r="T330" s="64"/>
+      <c r="U330" s="64"/>
+      <c r="V330" s="64"/>
+      <c r="W330" s="65"/>
     </row>
     <row r="331" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L331" s="30"/>
@@ -32695,20 +32696,20 @@
       <c r="W361" s="22"/>
     </row>
     <row r="362" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L362" s="57" t="s">
+      <c r="L362" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M362" s="58"/>
-      <c r="N362" s="58"/>
-      <c r="O362" s="58"/>
-      <c r="P362" s="58"/>
-      <c r="Q362" s="58"/>
-      <c r="R362" s="58"/>
-      <c r="S362" s="58"/>
-      <c r="T362" s="58"/>
-      <c r="U362" s="58"/>
-      <c r="V362" s="58"/>
-      <c r="W362" s="59"/>
+      <c r="M362" s="64"/>
+      <c r="N362" s="64"/>
+      <c r="O362" s="64"/>
+      <c r="P362" s="64"/>
+      <c r="Q362" s="64"/>
+      <c r="R362" s="64"/>
+      <c r="S362" s="64"/>
+      <c r="T362" s="64"/>
+      <c r="U362" s="64"/>
+      <c r="V362" s="64"/>
+      <c r="W362" s="65"/>
     </row>
     <row r="363" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L363" s="30"/>
@@ -34044,6 +34045,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L362:W362"/>
+    <mergeCell ref="L202:W202"/>
+    <mergeCell ref="L234:W234"/>
+    <mergeCell ref="L266:W266"/>
+    <mergeCell ref="L298:W298"/>
+    <mergeCell ref="L330:W330"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="L138:W138"/>
@@ -34052,12 +34059,6 @@
     <mergeCell ref="B67:J67"/>
     <mergeCell ref="L74:W74"/>
     <mergeCell ref="L106:W106"/>
-    <mergeCell ref="L362:W362"/>
-    <mergeCell ref="L202:W202"/>
-    <mergeCell ref="L234:W234"/>
-    <mergeCell ref="L266:W266"/>
-    <mergeCell ref="L298:W298"/>
-    <mergeCell ref="L330:W330"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel-net.xlsx
+++ b/excel-net.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchiv\Documents\Development\ML\Excel-Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A9F90-A6B6-4B8D-8958-CA28AD13F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA25E8-55F9-41C0-A6FB-280407E2D787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2781562B-16EF-496E-9C5F-5DDDC32CAD75}"/>
   </bookViews>
@@ -664,9 +664,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,6 +684,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17956,17 +17956,17 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="1"/>
       <c r="L5" s="65" t="s">
         <v>19</v>
@@ -18768,17 +18768,17 @@
       </c>
     </row>
     <row r="31" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
       <c r="K31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -19925,17 +19925,17 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="71"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="1"/>
       <c r="L59" s="28" t="s">
         <v>43</v>
@@ -20256,17 +20256,17 @@
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="2:23" ht="21" x14ac:dyDescent="0.4">
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="74"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="73"/>
       <c r="K67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
@@ -20380,20 +20380,20 @@
         <v>0.64615384615384619</v>
       </c>
       <c r="K70" s="1"/>
-      <c r="L70" s="75" t="s">
+      <c r="L70" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="75"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="75"/>
-      <c r="W70" s="75"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="74"/>
+      <c r="S70" s="74"/>
+      <c r="T70" s="74"/>
+      <c r="U70" s="74"/>
+      <c r="V70" s="74"/>
+      <c r="W70" s="74"/>
     </row>
     <row r="71" spans="2:23" ht="21" x14ac:dyDescent="0.4">
       <c r="B71" s="42">
@@ -20597,16 +20597,16 @@
       <c r="O74" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P74" s="68" t="s">
+      <c r="P74" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68"/>
-      <c r="U74" s="68"/>
-      <c r="V74" s="68"/>
-      <c r="W74" s="68"/>
+      <c r="Q74" s="75"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="75"/>
+      <c r="T74" s="75"/>
+      <c r="U74" s="75"/>
+      <c r="V74" s="75"/>
+      <c r="W74" s="75"/>
     </row>
     <row r="75" spans="2:23" ht="21" x14ac:dyDescent="0.4">
       <c r="K75" s="1"/>
@@ -21854,20 +21854,20 @@
     </row>
     <row r="102" spans="11:24" ht="21" x14ac:dyDescent="0.3">
       <c r="K102" s="1"/>
-      <c r="L102" s="75" t="s">
+      <c r="L102" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="M102" s="75"/>
-      <c r="N102" s="75"/>
-      <c r="O102" s="75"/>
-      <c r="P102" s="75"/>
-      <c r="Q102" s="75"/>
-      <c r="R102" s="75"/>
-      <c r="S102" s="75"/>
-      <c r="T102" s="75"/>
-      <c r="U102" s="75"/>
-      <c r="V102" s="75"/>
-      <c r="W102" s="75"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="74"/>
+      <c r="P102" s="74"/>
+      <c r="Q102" s="74"/>
+      <c r="R102" s="74"/>
+      <c r="S102" s="74"/>
+      <c r="T102" s="74"/>
+      <c r="U102" s="74"/>
+      <c r="V102" s="74"/>
+      <c r="W102" s="74"/>
     </row>
     <row r="103" spans="11:24" ht="21" x14ac:dyDescent="0.4">
       <c r="L103" s="27"/>
@@ -21964,16 +21964,16 @@
       <c r="O106" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P106" s="68" t="s">
+      <c r="P106" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q106" s="68"/>
-      <c r="R106" s="68"/>
-      <c r="S106" s="68"/>
-      <c r="T106" s="68"/>
-      <c r="U106" s="68"/>
-      <c r="V106" s="68"/>
-      <c r="W106" s="68"/>
+      <c r="Q106" s="75"/>
+      <c r="R106" s="75"/>
+      <c r="S106" s="75"/>
+      <c r="T106" s="75"/>
+      <c r="U106" s="75"/>
+      <c r="V106" s="75"/>
+      <c r="W106" s="75"/>
       <c r="X106" s="3"/>
     </row>
     <row r="107" spans="11:24" ht="21" x14ac:dyDescent="0.4">
@@ -23221,20 +23221,20 @@
       <c r="W133" s="10"/>
     </row>
     <row r="134" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L134" s="75" t="s">
+      <c r="L134" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="M134" s="75"/>
-      <c r="N134" s="75"/>
-      <c r="O134" s="75"/>
-      <c r="P134" s="75"/>
-      <c r="Q134" s="75"/>
-      <c r="R134" s="75"/>
-      <c r="S134" s="75"/>
-      <c r="T134" s="75"/>
-      <c r="U134" s="75"/>
-      <c r="V134" s="75"/>
-      <c r="W134" s="75"/>
+      <c r="M134" s="74"/>
+      <c r="N134" s="74"/>
+      <c r="O134" s="74"/>
+      <c r="P134" s="74"/>
+      <c r="Q134" s="74"/>
+      <c r="R134" s="74"/>
+      <c r="S134" s="74"/>
+      <c r="T134" s="74"/>
+      <c r="U134" s="74"/>
+      <c r="V134" s="74"/>
+      <c r="W134" s="74"/>
     </row>
     <row r="135" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L135" s="27"/>
@@ -23331,16 +23331,16 @@
       <c r="O138" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P138" s="68" t="s">
+      <c r="P138" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q138" s="68"/>
-      <c r="R138" s="68"/>
-      <c r="S138" s="68"/>
-      <c r="T138" s="68"/>
-      <c r="U138" s="68"/>
-      <c r="V138" s="68"/>
-      <c r="W138" s="68"/>
+      <c r="Q138" s="75"/>
+      <c r="R138" s="75"/>
+      <c r="S138" s="75"/>
+      <c r="T138" s="75"/>
+      <c r="U138" s="75"/>
+      <c r="V138" s="75"/>
+      <c r="W138" s="75"/>
     </row>
     <row r="139" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L139" s="50">
@@ -24585,20 +24585,20 @@
       <c r="W165" s="10"/>
     </row>
     <row r="166" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L166" s="75" t="s">
+      <c r="L166" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="M166" s="75"/>
-      <c r="N166" s="75"/>
-      <c r="O166" s="75"/>
-      <c r="P166" s="75"/>
-      <c r="Q166" s="75"/>
-      <c r="R166" s="75"/>
-      <c r="S166" s="75"/>
-      <c r="T166" s="75"/>
-      <c r="U166" s="75"/>
-      <c r="V166" s="75"/>
-      <c r="W166" s="75"/>
+      <c r="M166" s="74"/>
+      <c r="N166" s="74"/>
+      <c r="O166" s="74"/>
+      <c r="P166" s="74"/>
+      <c r="Q166" s="74"/>
+      <c r="R166" s="74"/>
+      <c r="S166" s="74"/>
+      <c r="T166" s="74"/>
+      <c r="U166" s="74"/>
+      <c r="V166" s="74"/>
+      <c r="W166" s="74"/>
     </row>
     <row r="167" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L167" s="27"/>
@@ -24695,16 +24695,16 @@
       <c r="O170" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P170" s="68" t="s">
+      <c r="P170" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q170" s="68"/>
-      <c r="R170" s="68"/>
-      <c r="S170" s="68"/>
-      <c r="T170" s="68"/>
-      <c r="U170" s="68"/>
-      <c r="V170" s="68"/>
-      <c r="W170" s="68"/>
+      <c r="Q170" s="75"/>
+      <c r="R170" s="75"/>
+      <c r="S170" s="75"/>
+      <c r="T170" s="75"/>
+      <c r="U170" s="75"/>
+      <c r="V170" s="75"/>
+      <c r="W170" s="75"/>
     </row>
     <row r="171" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L171" s="50">
@@ -25949,20 +25949,20 @@
       <c r="W197" s="21"/>
     </row>
     <row r="198" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L198" s="75" t="s">
+      <c r="L198" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="M198" s="75"/>
-      <c r="N198" s="75"/>
-      <c r="O198" s="75"/>
-      <c r="P198" s="75"/>
-      <c r="Q198" s="75"/>
-      <c r="R198" s="75"/>
-      <c r="S198" s="75"/>
-      <c r="T198" s="75"/>
-      <c r="U198" s="75"/>
-      <c r="V198" s="75"/>
-      <c r="W198" s="75"/>
+      <c r="M198" s="74"/>
+      <c r="N198" s="74"/>
+      <c r="O198" s="74"/>
+      <c r="P198" s="74"/>
+      <c r="Q198" s="74"/>
+      <c r="R198" s="74"/>
+      <c r="S198" s="74"/>
+      <c r="T198" s="74"/>
+      <c r="U198" s="74"/>
+      <c r="V198" s="74"/>
+      <c r="W198" s="74"/>
     </row>
     <row r="199" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L199" s="27"/>
@@ -26059,16 +26059,16 @@
       <c r="O202" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P202" s="68" t="s">
+      <c r="P202" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q202" s="68"/>
-      <c r="R202" s="68"/>
-      <c r="S202" s="68"/>
-      <c r="T202" s="68"/>
-      <c r="U202" s="68"/>
-      <c r="V202" s="68"/>
-      <c r="W202" s="68"/>
+      <c r="Q202" s="75"/>
+      <c r="R202" s="75"/>
+      <c r="S202" s="75"/>
+      <c r="T202" s="75"/>
+      <c r="U202" s="75"/>
+      <c r="V202" s="75"/>
+      <c r="W202" s="75"/>
     </row>
     <row r="203" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L203" s="50">
@@ -27313,20 +27313,20 @@
       <c r="W229" s="21"/>
     </row>
     <row r="230" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L230" s="75" t="s">
+      <c r="L230" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="M230" s="75"/>
-      <c r="N230" s="75"/>
-      <c r="O230" s="75"/>
-      <c r="P230" s="75"/>
-      <c r="Q230" s="75"/>
-      <c r="R230" s="75"/>
-      <c r="S230" s="75"/>
-      <c r="T230" s="75"/>
-      <c r="U230" s="75"/>
-      <c r="V230" s="75"/>
-      <c r="W230" s="75"/>
+      <c r="M230" s="74"/>
+      <c r="N230" s="74"/>
+      <c r="O230" s="74"/>
+      <c r="P230" s="74"/>
+      <c r="Q230" s="74"/>
+      <c r="R230" s="74"/>
+      <c r="S230" s="74"/>
+      <c r="T230" s="74"/>
+      <c r="U230" s="74"/>
+      <c r="V230" s="74"/>
+      <c r="W230" s="74"/>
     </row>
     <row r="231" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L231" s="27"/>
@@ -27423,16 +27423,16 @@
       <c r="O234" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P234" s="68" t="s">
+      <c r="P234" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q234" s="68"/>
-      <c r="R234" s="68"/>
-      <c r="S234" s="68"/>
-      <c r="T234" s="68"/>
-      <c r="U234" s="68"/>
-      <c r="V234" s="68"/>
-      <c r="W234" s="68"/>
+      <c r="Q234" s="75"/>
+      <c r="R234" s="75"/>
+      <c r="S234" s="75"/>
+      <c r="T234" s="75"/>
+      <c r="U234" s="75"/>
+      <c r="V234" s="75"/>
+      <c r="W234" s="75"/>
     </row>
     <row r="235" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L235" s="50">
@@ -28677,20 +28677,20 @@
       <c r="W261" s="21"/>
     </row>
     <row r="262" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L262" s="75" t="s">
+      <c r="L262" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="M262" s="75"/>
-      <c r="N262" s="75"/>
-      <c r="O262" s="75"/>
-      <c r="P262" s="75"/>
-      <c r="Q262" s="75"/>
-      <c r="R262" s="75"/>
-      <c r="S262" s="75"/>
-      <c r="T262" s="75"/>
-      <c r="U262" s="75"/>
-      <c r="V262" s="75"/>
-      <c r="W262" s="75"/>
+      <c r="M262" s="74"/>
+      <c r="N262" s="74"/>
+      <c r="O262" s="74"/>
+      <c r="P262" s="74"/>
+      <c r="Q262" s="74"/>
+      <c r="R262" s="74"/>
+      <c r="S262" s="74"/>
+      <c r="T262" s="74"/>
+      <c r="U262" s="74"/>
+      <c r="V262" s="74"/>
+      <c r="W262" s="74"/>
     </row>
     <row r="263" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L263" s="27"/>
@@ -28787,16 +28787,16 @@
       <c r="O266" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P266" s="68" t="s">
+      <c r="P266" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q266" s="68"/>
-      <c r="R266" s="68"/>
-      <c r="S266" s="68"/>
-      <c r="T266" s="68"/>
-      <c r="U266" s="68"/>
-      <c r="V266" s="68"/>
-      <c r="W266" s="68"/>
+      <c r="Q266" s="75"/>
+      <c r="R266" s="75"/>
+      <c r="S266" s="75"/>
+      <c r="T266" s="75"/>
+      <c r="U266" s="75"/>
+      <c r="V266" s="75"/>
+      <c r="W266" s="75"/>
     </row>
     <row r="267" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L267" s="50">
@@ -30041,20 +30041,20 @@
       <c r="W293" s="21"/>
     </row>
     <row r="294" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L294" s="75" t="s">
+      <c r="L294" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="M294" s="75"/>
-      <c r="N294" s="75"/>
-      <c r="O294" s="75"/>
-      <c r="P294" s="75"/>
-      <c r="Q294" s="75"/>
-      <c r="R294" s="75"/>
-      <c r="S294" s="75"/>
-      <c r="T294" s="75"/>
-      <c r="U294" s="75"/>
-      <c r="V294" s="75"/>
-      <c r="W294" s="75"/>
+      <c r="M294" s="74"/>
+      <c r="N294" s="74"/>
+      <c r="O294" s="74"/>
+      <c r="P294" s="74"/>
+      <c r="Q294" s="74"/>
+      <c r="R294" s="74"/>
+      <c r="S294" s="74"/>
+      <c r="T294" s="74"/>
+      <c r="U294" s="74"/>
+      <c r="V294" s="74"/>
+      <c r="W294" s="74"/>
     </row>
     <row r="295" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L295" s="27"/>
@@ -30151,16 +30151,16 @@
       <c r="O298" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P298" s="68" t="s">
+      <c r="P298" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q298" s="68"/>
-      <c r="R298" s="68"/>
-      <c r="S298" s="68"/>
-      <c r="T298" s="68"/>
-      <c r="U298" s="68"/>
-      <c r="V298" s="68"/>
-      <c r="W298" s="68"/>
+      <c r="Q298" s="75"/>
+      <c r="R298" s="75"/>
+      <c r="S298" s="75"/>
+      <c r="T298" s="75"/>
+      <c r="U298" s="75"/>
+      <c r="V298" s="75"/>
+      <c r="W298" s="75"/>
     </row>
     <row r="299" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L299" s="50">
@@ -31405,20 +31405,20 @@
       <c r="W325" s="21"/>
     </row>
     <row r="326" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L326" s="75" t="s">
+      <c r="L326" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="M326" s="75"/>
-      <c r="N326" s="75"/>
-      <c r="O326" s="75"/>
-      <c r="P326" s="75"/>
-      <c r="Q326" s="75"/>
-      <c r="R326" s="75"/>
-      <c r="S326" s="75"/>
-      <c r="T326" s="75"/>
-      <c r="U326" s="75"/>
-      <c r="V326" s="75"/>
-      <c r="W326" s="75"/>
+      <c r="M326" s="74"/>
+      <c r="N326" s="74"/>
+      <c r="O326" s="74"/>
+      <c r="P326" s="74"/>
+      <c r="Q326" s="74"/>
+      <c r="R326" s="74"/>
+      <c r="S326" s="74"/>
+      <c r="T326" s="74"/>
+      <c r="U326" s="74"/>
+      <c r="V326" s="74"/>
+      <c r="W326" s="74"/>
     </row>
     <row r="327" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L327" s="27"/>
@@ -31515,16 +31515,16 @@
       <c r="O330" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P330" s="68" t="s">
+      <c r="P330" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q330" s="68"/>
-      <c r="R330" s="68"/>
-      <c r="S330" s="68"/>
-      <c r="T330" s="68"/>
-      <c r="U330" s="68"/>
-      <c r="V330" s="68"/>
-      <c r="W330" s="68"/>
+      <c r="Q330" s="75"/>
+      <c r="R330" s="75"/>
+      <c r="S330" s="75"/>
+      <c r="T330" s="75"/>
+      <c r="U330" s="75"/>
+      <c r="V330" s="75"/>
+      <c r="W330" s="75"/>
     </row>
     <row r="331" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L331" s="50">
@@ -32769,20 +32769,20 @@
       <c r="W357" s="21"/>
     </row>
     <row r="358" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L358" s="75" t="s">
+      <c r="L358" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="M358" s="75"/>
-      <c r="N358" s="75"/>
-      <c r="O358" s="75"/>
-      <c r="P358" s="75"/>
-      <c r="Q358" s="75"/>
-      <c r="R358" s="75"/>
-      <c r="S358" s="75"/>
-      <c r="T358" s="75"/>
-      <c r="U358" s="75"/>
-      <c r="V358" s="75"/>
-      <c r="W358" s="75"/>
+      <c r="M358" s="74"/>
+      <c r="N358" s="74"/>
+      <c r="O358" s="74"/>
+      <c r="P358" s="74"/>
+      <c r="Q358" s="74"/>
+      <c r="R358" s="74"/>
+      <c r="S358" s="74"/>
+      <c r="T358" s="74"/>
+      <c r="U358" s="74"/>
+      <c r="V358" s="74"/>
+      <c r="W358" s="74"/>
     </row>
     <row r="359" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L359" s="27"/>
@@ -32879,16 +32879,16 @@
       <c r="O362" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P362" s="68" t="s">
+      <c r="P362" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q362" s="68"/>
-      <c r="R362" s="68"/>
-      <c r="S362" s="68"/>
-      <c r="T362" s="68"/>
-      <c r="U362" s="68"/>
-      <c r="V362" s="68"/>
-      <c r="W362" s="68"/>
+      <c r="Q362" s="75"/>
+      <c r="R362" s="75"/>
+      <c r="S362" s="75"/>
+      <c r="T362" s="75"/>
+      <c r="U362" s="75"/>
+      <c r="V362" s="75"/>
+      <c r="W362" s="75"/>
     </row>
     <row r="363" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L363" s="50">
@@ -34121,14 +34121,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="24">
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="L134:W134"/>
-    <mergeCell ref="L166:W166"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="L70:W70"/>
-    <mergeCell ref="L102:W102"/>
     <mergeCell ref="P170:W170"/>
     <mergeCell ref="P138:W138"/>
     <mergeCell ref="P106:W106"/>
@@ -34145,6 +34137,14 @@
     <mergeCell ref="L294:W294"/>
     <mergeCell ref="L326:W326"/>
     <mergeCell ref="P202:W202"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="L134:W134"/>
+    <mergeCell ref="L166:W166"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="L70:W70"/>
+    <mergeCell ref="L102:W102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel-net.xlsx
+++ b/excel-net.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchiv\Documents\Development\ML\Excel-Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA25E8-55F9-41C0-A6FB-280407E2D787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A36EF0-10D1-493E-A447-53BA613F9B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2781562B-16EF-496E-9C5F-5DDDC32CAD75}"/>
   </bookViews>
@@ -664,6 +664,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,12 +686,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -17956,17 +17956,17 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="1"/>
       <c r="L5" s="65" t="s">
         <v>19</v>
@@ -18768,17 +18768,17 @@
       </c>
     </row>
     <row r="31" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="75"/>
       <c r="K31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -19925,17 +19925,17 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="70"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
       <c r="K59" s="1"/>
       <c r="L59" s="28" t="s">
         <v>43</v>
@@ -20256,17 +20256,17 @@
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="2:23" ht="21" x14ac:dyDescent="0.4">
-      <c r="B67" s="71" t="s">
+      <c r="B67" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="75"/>
       <c r="K67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
@@ -20380,20 +20380,20 @@
         <v>0.64615384615384619</v>
       </c>
       <c r="K70" s="1"/>
-      <c r="L70" s="74" t="s">
+      <c r="L70" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="74"/>
-      <c r="N70" s="74"/>
-      <c r="O70" s="74"/>
-      <c r="P70" s="74"/>
-      <c r="Q70" s="74"/>
-      <c r="R70" s="74"/>
-      <c r="S70" s="74"/>
-      <c r="T70" s="74"/>
-      <c r="U70" s="74"/>
-      <c r="V70" s="74"/>
-      <c r="W70" s="74"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="69"/>
+      <c r="P70" s="69"/>
+      <c r="Q70" s="69"/>
+      <c r="R70" s="69"/>
+      <c r="S70" s="69"/>
+      <c r="T70" s="69"/>
+      <c r="U70" s="69"/>
+      <c r="V70" s="69"/>
+      <c r="W70" s="69"/>
     </row>
     <row r="71" spans="2:23" ht="21" x14ac:dyDescent="0.4">
       <c r="B71" s="42">
@@ -20597,16 +20597,16 @@
       <c r="O74" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P74" s="75" t="s">
+      <c r="P74" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="75"/>
-      <c r="S74" s="75"/>
-      <c r="T74" s="75"/>
-      <c r="U74" s="75"/>
-      <c r="V74" s="75"/>
-      <c r="W74" s="75"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="68"/>
     </row>
     <row r="75" spans="2:23" ht="21" x14ac:dyDescent="0.4">
       <c r="K75" s="1"/>
@@ -21854,20 +21854,20 @@
     </row>
     <row r="102" spans="11:24" ht="21" x14ac:dyDescent="0.3">
       <c r="K102" s="1"/>
-      <c r="L102" s="74" t="s">
+      <c r="L102" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="74"/>
-      <c r="S102" s="74"/>
-      <c r="T102" s="74"/>
-      <c r="U102" s="74"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="74"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="69"/>
+      <c r="O102" s="69"/>
+      <c r="P102" s="69"/>
+      <c r="Q102" s="69"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
+      <c r="W102" s="69"/>
     </row>
     <row r="103" spans="11:24" ht="21" x14ac:dyDescent="0.4">
       <c r="L103" s="27"/>
@@ -21964,16 +21964,16 @@
       <c r="O106" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P106" s="75" t="s">
+      <c r="P106" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q106" s="75"/>
-      <c r="R106" s="75"/>
-      <c r="S106" s="75"/>
-      <c r="T106" s="75"/>
-      <c r="U106" s="75"/>
-      <c r="V106" s="75"/>
-      <c r="W106" s="75"/>
+      <c r="Q106" s="68"/>
+      <c r="R106" s="68"/>
+      <c r="S106" s="68"/>
+      <c r="T106" s="68"/>
+      <c r="U106" s="68"/>
+      <c r="V106" s="68"/>
+      <c r="W106" s="68"/>
       <c r="X106" s="3"/>
     </row>
     <row r="107" spans="11:24" ht="21" x14ac:dyDescent="0.4">
@@ -23221,20 +23221,20 @@
       <c r="W133" s="10"/>
     </row>
     <row r="134" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L134" s="74" t="s">
+      <c r="L134" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M134" s="74"/>
-      <c r="N134" s="74"/>
-      <c r="O134" s="74"/>
-      <c r="P134" s="74"/>
-      <c r="Q134" s="74"/>
-      <c r="R134" s="74"/>
-      <c r="S134" s="74"/>
-      <c r="T134" s="74"/>
-      <c r="U134" s="74"/>
-      <c r="V134" s="74"/>
-      <c r="W134" s="74"/>
+      <c r="M134" s="69"/>
+      <c r="N134" s="69"/>
+      <c r="O134" s="69"/>
+      <c r="P134" s="69"/>
+      <c r="Q134" s="69"/>
+      <c r="R134" s="69"/>
+      <c r="S134" s="69"/>
+      <c r="T134" s="69"/>
+      <c r="U134" s="69"/>
+      <c r="V134" s="69"/>
+      <c r="W134" s="69"/>
     </row>
     <row r="135" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L135" s="27"/>
@@ -23331,16 +23331,16 @@
       <c r="O138" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P138" s="75" t="s">
+      <c r="P138" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q138" s="75"/>
-      <c r="R138" s="75"/>
-      <c r="S138" s="75"/>
-      <c r="T138" s="75"/>
-      <c r="U138" s="75"/>
-      <c r="V138" s="75"/>
-      <c r="W138" s="75"/>
+      <c r="Q138" s="68"/>
+      <c r="R138" s="68"/>
+      <c r="S138" s="68"/>
+      <c r="T138" s="68"/>
+      <c r="U138" s="68"/>
+      <c r="V138" s="68"/>
+      <c r="W138" s="68"/>
     </row>
     <row r="139" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L139" s="50">
@@ -24585,20 +24585,20 @@
       <c r="W165" s="10"/>
     </row>
     <row r="166" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L166" s="74" t="s">
+      <c r="L166" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="M166" s="74"/>
-      <c r="N166" s="74"/>
-      <c r="O166" s="74"/>
-      <c r="P166" s="74"/>
-      <c r="Q166" s="74"/>
-      <c r="R166" s="74"/>
-      <c r="S166" s="74"/>
-      <c r="T166" s="74"/>
-      <c r="U166" s="74"/>
-      <c r="V166" s="74"/>
-      <c r="W166" s="74"/>
+      <c r="M166" s="69"/>
+      <c r="N166" s="69"/>
+      <c r="O166" s="69"/>
+      <c r="P166" s="69"/>
+      <c r="Q166" s="69"/>
+      <c r="R166" s="69"/>
+      <c r="S166" s="69"/>
+      <c r="T166" s="69"/>
+      <c r="U166" s="69"/>
+      <c r="V166" s="69"/>
+      <c r="W166" s="69"/>
     </row>
     <row r="167" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L167" s="27"/>
@@ -24695,16 +24695,16 @@
       <c r="O170" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P170" s="75" t="s">
+      <c r="P170" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q170" s="75"/>
-      <c r="R170" s="75"/>
-      <c r="S170" s="75"/>
-      <c r="T170" s="75"/>
-      <c r="U170" s="75"/>
-      <c r="V170" s="75"/>
-      <c r="W170" s="75"/>
+      <c r="Q170" s="68"/>
+      <c r="R170" s="68"/>
+      <c r="S170" s="68"/>
+      <c r="T170" s="68"/>
+      <c r="U170" s="68"/>
+      <c r="V170" s="68"/>
+      <c r="W170" s="68"/>
     </row>
     <row r="171" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L171" s="50">
@@ -25949,20 +25949,20 @@
       <c r="W197" s="21"/>
     </row>
     <row r="198" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L198" s="74" t="s">
+      <c r="L198" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="M198" s="74"/>
-      <c r="N198" s="74"/>
-      <c r="O198" s="74"/>
-      <c r="P198" s="74"/>
-      <c r="Q198" s="74"/>
-      <c r="R198" s="74"/>
-      <c r="S198" s="74"/>
-      <c r="T198" s="74"/>
-      <c r="U198" s="74"/>
-      <c r="V198" s="74"/>
-      <c r="W198" s="74"/>
+      <c r="M198" s="69"/>
+      <c r="N198" s="69"/>
+      <c r="O198" s="69"/>
+      <c r="P198" s="69"/>
+      <c r="Q198" s="69"/>
+      <c r="R198" s="69"/>
+      <c r="S198" s="69"/>
+      <c r="T198" s="69"/>
+      <c r="U198" s="69"/>
+      <c r="V198" s="69"/>
+      <c r="W198" s="69"/>
     </row>
     <row r="199" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L199" s="27"/>
@@ -26059,16 +26059,16 @@
       <c r="O202" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P202" s="75" t="s">
+      <c r="P202" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q202" s="75"/>
-      <c r="R202" s="75"/>
-      <c r="S202" s="75"/>
-      <c r="T202" s="75"/>
-      <c r="U202" s="75"/>
-      <c r="V202" s="75"/>
-      <c r="W202" s="75"/>
+      <c r="Q202" s="68"/>
+      <c r="R202" s="68"/>
+      <c r="S202" s="68"/>
+      <c r="T202" s="68"/>
+      <c r="U202" s="68"/>
+      <c r="V202" s="68"/>
+      <c r="W202" s="68"/>
     </row>
     <row r="203" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L203" s="50">
@@ -27313,20 +27313,20 @@
       <c r="W229" s="21"/>
     </row>
     <row r="230" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L230" s="74" t="s">
+      <c r="L230" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="M230" s="74"/>
-      <c r="N230" s="74"/>
-      <c r="O230" s="74"/>
-      <c r="P230" s="74"/>
-      <c r="Q230" s="74"/>
-      <c r="R230" s="74"/>
-      <c r="S230" s="74"/>
-      <c r="T230" s="74"/>
-      <c r="U230" s="74"/>
-      <c r="V230" s="74"/>
-      <c r="W230" s="74"/>
+      <c r="M230" s="69"/>
+      <c r="N230" s="69"/>
+      <c r="O230" s="69"/>
+      <c r="P230" s="69"/>
+      <c r="Q230" s="69"/>
+      <c r="R230" s="69"/>
+      <c r="S230" s="69"/>
+      <c r="T230" s="69"/>
+      <c r="U230" s="69"/>
+      <c r="V230" s="69"/>
+      <c r="W230" s="69"/>
     </row>
     <row r="231" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L231" s="27"/>
@@ -27423,16 +27423,16 @@
       <c r="O234" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P234" s="75" t="s">
+      <c r="P234" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q234" s="75"/>
-      <c r="R234" s="75"/>
-      <c r="S234" s="75"/>
-      <c r="T234" s="75"/>
-      <c r="U234" s="75"/>
-      <c r="V234" s="75"/>
-      <c r="W234" s="75"/>
+      <c r="Q234" s="68"/>
+      <c r="R234" s="68"/>
+      <c r="S234" s="68"/>
+      <c r="T234" s="68"/>
+      <c r="U234" s="68"/>
+      <c r="V234" s="68"/>
+      <c r="W234" s="68"/>
     </row>
     <row r="235" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L235" s="50">
@@ -28677,20 +28677,20 @@
       <c r="W261" s="21"/>
     </row>
     <row r="262" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L262" s="74" t="s">
+      <c r="L262" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="M262" s="74"/>
-      <c r="N262" s="74"/>
-      <c r="O262" s="74"/>
-      <c r="P262" s="74"/>
-      <c r="Q262" s="74"/>
-      <c r="R262" s="74"/>
-      <c r="S262" s="74"/>
-      <c r="T262" s="74"/>
-      <c r="U262" s="74"/>
-      <c r="V262" s="74"/>
-      <c r="W262" s="74"/>
+      <c r="M262" s="69"/>
+      <c r="N262" s="69"/>
+      <c r="O262" s="69"/>
+      <c r="P262" s="69"/>
+      <c r="Q262" s="69"/>
+      <c r="R262" s="69"/>
+      <c r="S262" s="69"/>
+      <c r="T262" s="69"/>
+      <c r="U262" s="69"/>
+      <c r="V262" s="69"/>
+      <c r="W262" s="69"/>
     </row>
     <row r="263" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L263" s="27"/>
@@ -28787,16 +28787,16 @@
       <c r="O266" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P266" s="75" t="s">
+      <c r="P266" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q266" s="75"/>
-      <c r="R266" s="75"/>
-      <c r="S266" s="75"/>
-      <c r="T266" s="75"/>
-      <c r="U266" s="75"/>
-      <c r="V266" s="75"/>
-      <c r="W266" s="75"/>
+      <c r="Q266" s="68"/>
+      <c r="R266" s="68"/>
+      <c r="S266" s="68"/>
+      <c r="T266" s="68"/>
+      <c r="U266" s="68"/>
+      <c r="V266" s="68"/>
+      <c r="W266" s="68"/>
     </row>
     <row r="267" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L267" s="50">
@@ -30041,20 +30041,20 @@
       <c r="W293" s="21"/>
     </row>
     <row r="294" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L294" s="74" t="s">
+      <c r="L294" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="M294" s="74"/>
-      <c r="N294" s="74"/>
-      <c r="O294" s="74"/>
-      <c r="P294" s="74"/>
-      <c r="Q294" s="74"/>
-      <c r="R294" s="74"/>
-      <c r="S294" s="74"/>
-      <c r="T294" s="74"/>
-      <c r="U294" s="74"/>
-      <c r="V294" s="74"/>
-      <c r="W294" s="74"/>
+      <c r="M294" s="69"/>
+      <c r="N294" s="69"/>
+      <c r="O294" s="69"/>
+      <c r="P294" s="69"/>
+      <c r="Q294" s="69"/>
+      <c r="R294" s="69"/>
+      <c r="S294" s="69"/>
+      <c r="T294" s="69"/>
+      <c r="U294" s="69"/>
+      <c r="V294" s="69"/>
+      <c r="W294" s="69"/>
     </row>
     <row r="295" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L295" s="27"/>
@@ -30151,16 +30151,16 @@
       <c r="O298" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P298" s="75" t="s">
+      <c r="P298" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q298" s="75"/>
-      <c r="R298" s="75"/>
-      <c r="S298" s="75"/>
-      <c r="T298" s="75"/>
-      <c r="U298" s="75"/>
-      <c r="V298" s="75"/>
-      <c r="W298" s="75"/>
+      <c r="Q298" s="68"/>
+      <c r="R298" s="68"/>
+      <c r="S298" s="68"/>
+      <c r="T298" s="68"/>
+      <c r="U298" s="68"/>
+      <c r="V298" s="68"/>
+      <c r="W298" s="68"/>
     </row>
     <row r="299" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L299" s="50">
@@ -31405,20 +31405,20 @@
       <c r="W325" s="21"/>
     </row>
     <row r="326" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L326" s="74" t="s">
+      <c r="L326" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="M326" s="74"/>
-      <c r="N326" s="74"/>
-      <c r="O326" s="74"/>
-      <c r="P326" s="74"/>
-      <c r="Q326" s="74"/>
-      <c r="R326" s="74"/>
-      <c r="S326" s="74"/>
-      <c r="T326" s="74"/>
-      <c r="U326" s="74"/>
-      <c r="V326" s="74"/>
-      <c r="W326" s="74"/>
+      <c r="M326" s="69"/>
+      <c r="N326" s="69"/>
+      <c r="O326" s="69"/>
+      <c r="P326" s="69"/>
+      <c r="Q326" s="69"/>
+      <c r="R326" s="69"/>
+      <c r="S326" s="69"/>
+      <c r="T326" s="69"/>
+      <c r="U326" s="69"/>
+      <c r="V326" s="69"/>
+      <c r="W326" s="69"/>
     </row>
     <row r="327" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L327" s="27"/>
@@ -31515,16 +31515,16 @@
       <c r="O330" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P330" s="75" t="s">
+      <c r="P330" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q330" s="75"/>
-      <c r="R330" s="75"/>
-      <c r="S330" s="75"/>
-      <c r="T330" s="75"/>
-      <c r="U330" s="75"/>
-      <c r="V330" s="75"/>
-      <c r="W330" s="75"/>
+      <c r="Q330" s="68"/>
+      <c r="R330" s="68"/>
+      <c r="S330" s="68"/>
+      <c r="T330" s="68"/>
+      <c r="U330" s="68"/>
+      <c r="V330" s="68"/>
+      <c r="W330" s="68"/>
     </row>
     <row r="331" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L331" s="50">
@@ -32769,20 +32769,20 @@
       <c r="W357" s="21"/>
     </row>
     <row r="358" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L358" s="74" t="s">
+      <c r="L358" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="M358" s="74"/>
-      <c r="N358" s="74"/>
-      <c r="O358" s="74"/>
-      <c r="P358" s="74"/>
-      <c r="Q358" s="74"/>
-      <c r="R358" s="74"/>
-      <c r="S358" s="74"/>
-      <c r="T358" s="74"/>
-      <c r="U358" s="74"/>
-      <c r="V358" s="74"/>
-      <c r="W358" s="74"/>
+      <c r="M358" s="69"/>
+      <c r="N358" s="69"/>
+      <c r="O358" s="69"/>
+      <c r="P358" s="69"/>
+      <c r="Q358" s="69"/>
+      <c r="R358" s="69"/>
+      <c r="S358" s="69"/>
+      <c r="T358" s="69"/>
+      <c r="U358" s="69"/>
+      <c r="V358" s="69"/>
+      <c r="W358" s="69"/>
     </row>
     <row r="359" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L359" s="27"/>
@@ -32879,16 +32879,16 @@
       <c r="O362" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P362" s="75" t="s">
+      <c r="P362" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q362" s="75"/>
-      <c r="R362" s="75"/>
-      <c r="S362" s="75"/>
-      <c r="T362" s="75"/>
-      <c r="U362" s="75"/>
-      <c r="V362" s="75"/>
-      <c r="W362" s="75"/>
+      <c r="Q362" s="68"/>
+      <c r="R362" s="68"/>
+      <c r="S362" s="68"/>
+      <c r="T362" s="68"/>
+      <c r="U362" s="68"/>
+      <c r="V362" s="68"/>
+      <c r="W362" s="68"/>
     </row>
     <row r="363" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L363" s="50">
@@ -34121,6 +34121,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="L134:W134"/>
+    <mergeCell ref="L166:W166"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="L70:W70"/>
+    <mergeCell ref="L102:W102"/>
     <mergeCell ref="P170:W170"/>
     <mergeCell ref="P138:W138"/>
     <mergeCell ref="P106:W106"/>
@@ -34137,14 +34145,6 @@
     <mergeCell ref="L294:W294"/>
     <mergeCell ref="L326:W326"/>
     <mergeCell ref="P202:W202"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="L134:W134"/>
-    <mergeCell ref="L166:W166"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="L70:W70"/>
-    <mergeCell ref="L102:W102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel-net.xlsx
+++ b/excel-net.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchiv\Documents\Development\ML\Excel-Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A36EF0-10D1-493E-A447-53BA613F9B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBF57D3-A290-4541-A8D6-CC7294A7D9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2781562B-16EF-496E-9C5F-5DDDC32CAD75}"/>
   </bookViews>
@@ -664,12 +664,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,6 +680,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -17956,17 +17956,17 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="1"/>
       <c r="L5" s="65" t="s">
         <v>19</v>
@@ -18768,17 +18768,17 @@
       </c>
     </row>
     <row r="31" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="75"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
       <c r="K31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -19925,17 +19925,17 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="72"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="1"/>
       <c r="L59" s="28" t="s">
         <v>43</v>
@@ -20256,17 +20256,17 @@
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="2:23" ht="21" x14ac:dyDescent="0.4">
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="75"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="73"/>
       <c r="K67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
@@ -20380,20 +20380,20 @@
         <v>0.64615384615384619</v>
       </c>
       <c r="K70" s="1"/>
-      <c r="L70" s="69" t="s">
+      <c r="L70" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="69"/>
-      <c r="N70" s="69"/>
-      <c r="O70" s="69"/>
-      <c r="P70" s="69"/>
-      <c r="Q70" s="69"/>
-      <c r="R70" s="69"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="69"/>
-      <c r="U70" s="69"/>
-      <c r="V70" s="69"/>
-      <c r="W70" s="69"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="74"/>
+      <c r="S70" s="74"/>
+      <c r="T70" s="74"/>
+      <c r="U70" s="74"/>
+      <c r="V70" s="74"/>
+      <c r="W70" s="74"/>
     </row>
     <row r="71" spans="2:23" ht="21" x14ac:dyDescent="0.4">
       <c r="B71" s="42">
@@ -20597,16 +20597,16 @@
       <c r="O74" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P74" s="68" t="s">
+      <c r="P74" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68"/>
-      <c r="U74" s="68"/>
-      <c r="V74" s="68"/>
-      <c r="W74" s="68"/>
+      <c r="Q74" s="75"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="75"/>
+      <c r="T74" s="75"/>
+      <c r="U74" s="75"/>
+      <c r="V74" s="75"/>
+      <c r="W74" s="75"/>
     </row>
     <row r="75" spans="2:23" ht="21" x14ac:dyDescent="0.4">
       <c r="K75" s="1"/>
@@ -21854,20 +21854,20 @@
     </row>
     <row r="102" spans="11:24" ht="21" x14ac:dyDescent="0.3">
       <c r="K102" s="1"/>
-      <c r="L102" s="69" t="s">
+      <c r="L102" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="69"/>
-      <c r="P102" s="69"/>
-      <c r="Q102" s="69"/>
-      <c r="R102" s="69"/>
-      <c r="S102" s="69"/>
-      <c r="T102" s="69"/>
-      <c r="U102" s="69"/>
-      <c r="V102" s="69"/>
-      <c r="W102" s="69"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="74"/>
+      <c r="P102" s="74"/>
+      <c r="Q102" s="74"/>
+      <c r="R102" s="74"/>
+      <c r="S102" s="74"/>
+      <c r="T102" s="74"/>
+      <c r="U102" s="74"/>
+      <c r="V102" s="74"/>
+      <c r="W102" s="74"/>
     </row>
     <row r="103" spans="11:24" ht="21" x14ac:dyDescent="0.4">
       <c r="L103" s="27"/>
@@ -21964,16 +21964,16 @@
       <c r="O106" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P106" s="68" t="s">
+      <c r="P106" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q106" s="68"/>
-      <c r="R106" s="68"/>
-      <c r="S106" s="68"/>
-      <c r="T106" s="68"/>
-      <c r="U106" s="68"/>
-      <c r="V106" s="68"/>
-      <c r="W106" s="68"/>
+      <c r="Q106" s="75"/>
+      <c r="R106" s="75"/>
+      <c r="S106" s="75"/>
+      <c r="T106" s="75"/>
+      <c r="U106" s="75"/>
+      <c r="V106" s="75"/>
+      <c r="W106" s="75"/>
       <c r="X106" s="3"/>
     </row>
     <row r="107" spans="11:24" ht="21" x14ac:dyDescent="0.4">
@@ -23221,20 +23221,20 @@
       <c r="W133" s="10"/>
     </row>
     <row r="134" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L134" s="69" t="s">
+      <c r="L134" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="M134" s="69"/>
-      <c r="N134" s="69"/>
-      <c r="O134" s="69"/>
-      <c r="P134" s="69"/>
-      <c r="Q134" s="69"/>
-      <c r="R134" s="69"/>
-      <c r="S134" s="69"/>
-      <c r="T134" s="69"/>
-      <c r="U134" s="69"/>
-      <c r="V134" s="69"/>
-      <c r="W134" s="69"/>
+      <c r="M134" s="74"/>
+      <c r="N134" s="74"/>
+      <c r="O134" s="74"/>
+      <c r="P134" s="74"/>
+      <c r="Q134" s="74"/>
+      <c r="R134" s="74"/>
+      <c r="S134" s="74"/>
+      <c r="T134" s="74"/>
+      <c r="U134" s="74"/>
+      <c r="V134" s="74"/>
+      <c r="W134" s="74"/>
     </row>
     <row r="135" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L135" s="27"/>
@@ -23331,16 +23331,16 @@
       <c r="O138" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P138" s="68" t="s">
+      <c r="P138" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q138" s="68"/>
-      <c r="R138" s="68"/>
-      <c r="S138" s="68"/>
-      <c r="T138" s="68"/>
-      <c r="U138" s="68"/>
-      <c r="V138" s="68"/>
-      <c r="W138" s="68"/>
+      <c r="Q138" s="75"/>
+      <c r="R138" s="75"/>
+      <c r="S138" s="75"/>
+      <c r="T138" s="75"/>
+      <c r="U138" s="75"/>
+      <c r="V138" s="75"/>
+      <c r="W138" s="75"/>
     </row>
     <row r="139" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L139" s="50">
@@ -24585,20 +24585,20 @@
       <c r="W165" s="10"/>
     </row>
     <row r="166" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L166" s="69" t="s">
+      <c r="L166" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="M166" s="69"/>
-      <c r="N166" s="69"/>
-      <c r="O166" s="69"/>
-      <c r="P166" s="69"/>
-      <c r="Q166" s="69"/>
-      <c r="R166" s="69"/>
-      <c r="S166" s="69"/>
-      <c r="T166" s="69"/>
-      <c r="U166" s="69"/>
-      <c r="V166" s="69"/>
-      <c r="W166" s="69"/>
+      <c r="M166" s="74"/>
+      <c r="N166" s="74"/>
+      <c r="O166" s="74"/>
+      <c r="P166" s="74"/>
+      <c r="Q166" s="74"/>
+      <c r="R166" s="74"/>
+      <c r="S166" s="74"/>
+      <c r="T166" s="74"/>
+      <c r="U166" s="74"/>
+      <c r="V166" s="74"/>
+      <c r="W166" s="74"/>
     </row>
     <row r="167" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L167" s="27"/>
@@ -24695,16 +24695,16 @@
       <c r="O170" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P170" s="68" t="s">
+      <c r="P170" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q170" s="68"/>
-      <c r="R170" s="68"/>
-      <c r="S170" s="68"/>
-      <c r="T170" s="68"/>
-      <c r="U170" s="68"/>
-      <c r="V170" s="68"/>
-      <c r="W170" s="68"/>
+      <c r="Q170" s="75"/>
+      <c r="R170" s="75"/>
+      <c r="S170" s="75"/>
+      <c r="T170" s="75"/>
+      <c r="U170" s="75"/>
+      <c r="V170" s="75"/>
+      <c r="W170" s="75"/>
     </row>
     <row r="171" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L171" s="50">
@@ -25949,20 +25949,20 @@
       <c r="W197" s="21"/>
     </row>
     <row r="198" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L198" s="69" t="s">
+      <c r="L198" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="M198" s="69"/>
-      <c r="N198" s="69"/>
-      <c r="O198" s="69"/>
-      <c r="P198" s="69"/>
-      <c r="Q198" s="69"/>
-      <c r="R198" s="69"/>
-      <c r="S198" s="69"/>
-      <c r="T198" s="69"/>
-      <c r="U198" s="69"/>
-      <c r="V198" s="69"/>
-      <c r="W198" s="69"/>
+      <c r="M198" s="74"/>
+      <c r="N198" s="74"/>
+      <c r="O198" s="74"/>
+      <c r="P198" s="74"/>
+      <c r="Q198" s="74"/>
+      <c r="R198" s="74"/>
+      <c r="S198" s="74"/>
+      <c r="T198" s="74"/>
+      <c r="U198" s="74"/>
+      <c r="V198" s="74"/>
+      <c r="W198" s="74"/>
     </row>
     <row r="199" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L199" s="27"/>
@@ -26059,16 +26059,16 @@
       <c r="O202" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P202" s="68" t="s">
+      <c r="P202" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q202" s="68"/>
-      <c r="R202" s="68"/>
-      <c r="S202" s="68"/>
-      <c r="T202" s="68"/>
-      <c r="U202" s="68"/>
-      <c r="V202" s="68"/>
-      <c r="W202" s="68"/>
+      <c r="Q202" s="75"/>
+      <c r="R202" s="75"/>
+      <c r="S202" s="75"/>
+      <c r="T202" s="75"/>
+      <c r="U202" s="75"/>
+      <c r="V202" s="75"/>
+      <c r="W202" s="75"/>
     </row>
     <row r="203" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L203" s="50">
@@ -27313,20 +27313,20 @@
       <c r="W229" s="21"/>
     </row>
     <row r="230" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L230" s="69" t="s">
+      <c r="L230" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="M230" s="69"/>
-      <c r="N230" s="69"/>
-      <c r="O230" s="69"/>
-      <c r="P230" s="69"/>
-      <c r="Q230" s="69"/>
-      <c r="R230" s="69"/>
-      <c r="S230" s="69"/>
-      <c r="T230" s="69"/>
-      <c r="U230" s="69"/>
-      <c r="V230" s="69"/>
-      <c r="W230" s="69"/>
+      <c r="M230" s="74"/>
+      <c r="N230" s="74"/>
+      <c r="O230" s="74"/>
+      <c r="P230" s="74"/>
+      <c r="Q230" s="74"/>
+      <c r="R230" s="74"/>
+      <c r="S230" s="74"/>
+      <c r="T230" s="74"/>
+      <c r="U230" s="74"/>
+      <c r="V230" s="74"/>
+      <c r="W230" s="74"/>
     </row>
     <row r="231" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L231" s="27"/>
@@ -27423,16 +27423,16 @@
       <c r="O234" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P234" s="68" t="s">
+      <c r="P234" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q234" s="68"/>
-      <c r="R234" s="68"/>
-      <c r="S234" s="68"/>
-      <c r="T234" s="68"/>
-      <c r="U234" s="68"/>
-      <c r="V234" s="68"/>
-      <c r="W234" s="68"/>
+      <c r="Q234" s="75"/>
+      <c r="R234" s="75"/>
+      <c r="S234" s="75"/>
+      <c r="T234" s="75"/>
+      <c r="U234" s="75"/>
+      <c r="V234" s="75"/>
+      <c r="W234" s="75"/>
     </row>
     <row r="235" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L235" s="50">
@@ -28677,20 +28677,20 @@
       <c r="W261" s="21"/>
     </row>
     <row r="262" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L262" s="69" t="s">
+      <c r="L262" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="M262" s="69"/>
-      <c r="N262" s="69"/>
-      <c r="O262" s="69"/>
-      <c r="P262" s="69"/>
-      <c r="Q262" s="69"/>
-      <c r="R262" s="69"/>
-      <c r="S262" s="69"/>
-      <c r="T262" s="69"/>
-      <c r="U262" s="69"/>
-      <c r="V262" s="69"/>
-      <c r="W262" s="69"/>
+      <c r="M262" s="74"/>
+      <c r="N262" s="74"/>
+      <c r="O262" s="74"/>
+      <c r="P262" s="74"/>
+      <c r="Q262" s="74"/>
+      <c r="R262" s="74"/>
+      <c r="S262" s="74"/>
+      <c r="T262" s="74"/>
+      <c r="U262" s="74"/>
+      <c r="V262" s="74"/>
+      <c r="W262" s="74"/>
     </row>
     <row r="263" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L263" s="27"/>
@@ -28787,16 +28787,16 @@
       <c r="O266" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P266" s="68" t="s">
+      <c r="P266" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q266" s="68"/>
-      <c r="R266" s="68"/>
-      <c r="S266" s="68"/>
-      <c r="T266" s="68"/>
-      <c r="U266" s="68"/>
-      <c r="V266" s="68"/>
-      <c r="W266" s="68"/>
+      <c r="Q266" s="75"/>
+      <c r="R266" s="75"/>
+      <c r="S266" s="75"/>
+      <c r="T266" s="75"/>
+      <c r="U266" s="75"/>
+      <c r="V266" s="75"/>
+      <c r="W266" s="75"/>
     </row>
     <row r="267" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L267" s="50">
@@ -30041,20 +30041,20 @@
       <c r="W293" s="21"/>
     </row>
     <row r="294" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L294" s="69" t="s">
+      <c r="L294" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="M294" s="69"/>
-      <c r="N294" s="69"/>
-      <c r="O294" s="69"/>
-      <c r="P294" s="69"/>
-      <c r="Q294" s="69"/>
-      <c r="R294" s="69"/>
-      <c r="S294" s="69"/>
-      <c r="T294" s="69"/>
-      <c r="U294" s="69"/>
-      <c r="V294" s="69"/>
-      <c r="W294" s="69"/>
+      <c r="M294" s="74"/>
+      <c r="N294" s="74"/>
+      <c r="O294" s="74"/>
+      <c r="P294" s="74"/>
+      <c r="Q294" s="74"/>
+      <c r="R294" s="74"/>
+      <c r="S294" s="74"/>
+      <c r="T294" s="74"/>
+      <c r="U294" s="74"/>
+      <c r="V294" s="74"/>
+      <c r="W294" s="74"/>
     </row>
     <row r="295" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L295" s="27"/>
@@ -30151,16 +30151,16 @@
       <c r="O298" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P298" s="68" t="s">
+      <c r="P298" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q298" s="68"/>
-      <c r="R298" s="68"/>
-      <c r="S298" s="68"/>
-      <c r="T298" s="68"/>
-      <c r="U298" s="68"/>
-      <c r="V298" s="68"/>
-      <c r="W298" s="68"/>
+      <c r="Q298" s="75"/>
+      <c r="R298" s="75"/>
+      <c r="S298" s="75"/>
+      <c r="T298" s="75"/>
+      <c r="U298" s="75"/>
+      <c r="V298" s="75"/>
+      <c r="W298" s="75"/>
     </row>
     <row r="299" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L299" s="50">
@@ -31405,20 +31405,20 @@
       <c r="W325" s="21"/>
     </row>
     <row r="326" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L326" s="69" t="s">
+      <c r="L326" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="M326" s="69"/>
-      <c r="N326" s="69"/>
-      <c r="O326" s="69"/>
-      <c r="P326" s="69"/>
-      <c r="Q326" s="69"/>
-      <c r="R326" s="69"/>
-      <c r="S326" s="69"/>
-      <c r="T326" s="69"/>
-      <c r="U326" s="69"/>
-      <c r="V326" s="69"/>
-      <c r="W326" s="69"/>
+      <c r="M326" s="74"/>
+      <c r="N326" s="74"/>
+      <c r="O326" s="74"/>
+      <c r="P326" s="74"/>
+      <c r="Q326" s="74"/>
+      <c r="R326" s="74"/>
+      <c r="S326" s="74"/>
+      <c r="T326" s="74"/>
+      <c r="U326" s="74"/>
+      <c r="V326" s="74"/>
+      <c r="W326" s="74"/>
     </row>
     <row r="327" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L327" s="27"/>
@@ -31515,16 +31515,16 @@
       <c r="O330" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P330" s="68" t="s">
+      <c r="P330" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q330" s="68"/>
-      <c r="R330" s="68"/>
-      <c r="S330" s="68"/>
-      <c r="T330" s="68"/>
-      <c r="U330" s="68"/>
-      <c r="V330" s="68"/>
-      <c r="W330" s="68"/>
+      <c r="Q330" s="75"/>
+      <c r="R330" s="75"/>
+      <c r="S330" s="75"/>
+      <c r="T330" s="75"/>
+      <c r="U330" s="75"/>
+      <c r="V330" s="75"/>
+      <c r="W330" s="75"/>
     </row>
     <row r="331" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L331" s="50">
@@ -32769,20 +32769,20 @@
       <c r="W357" s="21"/>
     </row>
     <row r="358" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L358" s="69" t="s">
+      <c r="L358" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="M358" s="69"/>
-      <c r="N358" s="69"/>
-      <c r="O358" s="69"/>
-      <c r="P358" s="69"/>
-      <c r="Q358" s="69"/>
-      <c r="R358" s="69"/>
-      <c r="S358" s="69"/>
-      <c r="T358" s="69"/>
-      <c r="U358" s="69"/>
-      <c r="V358" s="69"/>
-      <c r="W358" s="69"/>
+      <c r="M358" s="74"/>
+      <c r="N358" s="74"/>
+      <c r="O358" s="74"/>
+      <c r="P358" s="74"/>
+      <c r="Q358" s="74"/>
+      <c r="R358" s="74"/>
+      <c r="S358" s="74"/>
+      <c r="T358" s="74"/>
+      <c r="U358" s="74"/>
+      <c r="V358" s="74"/>
+      <c r="W358" s="74"/>
     </row>
     <row r="359" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L359" s="27"/>
@@ -32879,16 +32879,16 @@
       <c r="O362" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P362" s="68" t="s">
+      <c r="P362" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q362" s="68"/>
-      <c r="R362" s="68"/>
-      <c r="S362" s="68"/>
-      <c r="T362" s="68"/>
-      <c r="U362" s="68"/>
-      <c r="V362" s="68"/>
-      <c r="W362" s="68"/>
+      <c r="Q362" s="75"/>
+      <c r="R362" s="75"/>
+      <c r="S362" s="75"/>
+      <c r="T362" s="75"/>
+      <c r="U362" s="75"/>
+      <c r="V362" s="75"/>
+      <c r="W362" s="75"/>
     </row>
     <row r="363" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L363" s="50">
@@ -34121,14 +34121,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="24">
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="L134:W134"/>
-    <mergeCell ref="L166:W166"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="L70:W70"/>
-    <mergeCell ref="L102:W102"/>
     <mergeCell ref="P170:W170"/>
     <mergeCell ref="P138:W138"/>
     <mergeCell ref="P106:W106"/>
@@ -34145,6 +34137,14 @@
     <mergeCell ref="L294:W294"/>
     <mergeCell ref="L326:W326"/>
     <mergeCell ref="P202:W202"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="L134:W134"/>
+    <mergeCell ref="L166:W166"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="L70:W70"/>
+    <mergeCell ref="L102:W102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel-net.xlsx
+++ b/excel-net.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchiv\Documents\Development\ML\Excel-Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBF57D3-A290-4541-A8D6-CC7294A7D9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D2C1CF-4EC7-4E57-9AAD-935F89CD55CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2781562B-16EF-496E-9C5F-5DDDC32CAD75}"/>
   </bookViews>
@@ -664,6 +664,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,12 +686,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4235,11 +4235,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$59</c:f>
+              <c:f>Sheet1!$J$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test Predictions</c:v>
+                  <c:v>P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4270,24 +4270,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$60:$L$64</c:f>
+              <c:f>Sheet1!$J$61:$J$65</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>102.48583126817059</c:v>
+                  <c:v>159.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.96548419652075</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.87880507025487</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.43687717133002</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.272304418574592</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4304,11 +4304,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$60</c:f>
+              <c:f>Sheet1!$L$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P</c:v>
+                  <c:v>Test Predictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4339,24 +4339,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$61:$J$65</c:f>
+              <c:f>Sheet1!$L$60:$L$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>159.9</c:v>
+                  <c:v>102.48583126817059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210</c:v>
+                  <c:v>153.96548419652075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210</c:v>
+                  <c:v>53.87880507025487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>305</c:v>
+                  <c:v>157.43687717133002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325</c:v>
+                  <c:v>77.272304418574592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17956,17 +17956,17 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="1"/>
       <c r="L5" s="65" t="s">
         <v>19</v>
@@ -18768,17 +18768,17 @@
       </c>
     </row>
     <row r="31" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="75"/>
       <c r="K31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -19925,17 +19925,17 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="70"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
       <c r="K59" s="1"/>
       <c r="L59" s="28" t="s">
         <v>43</v>
@@ -20256,17 +20256,17 @@
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="2:23" ht="21" x14ac:dyDescent="0.4">
-      <c r="B67" s="71" t="s">
+      <c r="B67" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="75"/>
       <c r="K67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
@@ -20380,20 +20380,20 @@
         <v>0.64615384615384619</v>
       </c>
       <c r="K70" s="1"/>
-      <c r="L70" s="74" t="s">
+      <c r="L70" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="74"/>
-      <c r="N70" s="74"/>
-      <c r="O70" s="74"/>
-      <c r="P70" s="74"/>
-      <c r="Q70" s="74"/>
-      <c r="R70" s="74"/>
-      <c r="S70" s="74"/>
-      <c r="T70" s="74"/>
-      <c r="U70" s="74"/>
-      <c r="V70" s="74"/>
-      <c r="W70" s="74"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="69"/>
+      <c r="P70" s="69"/>
+      <c r="Q70" s="69"/>
+      <c r="R70" s="69"/>
+      <c r="S70" s="69"/>
+      <c r="T70" s="69"/>
+      <c r="U70" s="69"/>
+      <c r="V70" s="69"/>
+      <c r="W70" s="69"/>
     </row>
     <row r="71" spans="2:23" ht="21" x14ac:dyDescent="0.4">
       <c r="B71" s="42">
@@ -20597,16 +20597,16 @@
       <c r="O74" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P74" s="75" t="s">
+      <c r="P74" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="75"/>
-      <c r="S74" s="75"/>
-      <c r="T74" s="75"/>
-      <c r="U74" s="75"/>
-      <c r="V74" s="75"/>
-      <c r="W74" s="75"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="68"/>
     </row>
     <row r="75" spans="2:23" ht="21" x14ac:dyDescent="0.4">
       <c r="K75" s="1"/>
@@ -21854,20 +21854,20 @@
     </row>
     <row r="102" spans="11:24" ht="21" x14ac:dyDescent="0.3">
       <c r="K102" s="1"/>
-      <c r="L102" s="74" t="s">
+      <c r="L102" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="74"/>
-      <c r="S102" s="74"/>
-      <c r="T102" s="74"/>
-      <c r="U102" s="74"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="74"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="69"/>
+      <c r="O102" s="69"/>
+      <c r="P102" s="69"/>
+      <c r="Q102" s="69"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
+      <c r="W102" s="69"/>
     </row>
     <row r="103" spans="11:24" ht="21" x14ac:dyDescent="0.4">
       <c r="L103" s="27"/>
@@ -21964,16 +21964,16 @@
       <c r="O106" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P106" s="75" t="s">
+      <c r="P106" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q106" s="75"/>
-      <c r="R106" s="75"/>
-      <c r="S106" s="75"/>
-      <c r="T106" s="75"/>
-      <c r="U106" s="75"/>
-      <c r="V106" s="75"/>
-      <c r="W106" s="75"/>
+      <c r="Q106" s="68"/>
+      <c r="R106" s="68"/>
+      <c r="S106" s="68"/>
+      <c r="T106" s="68"/>
+      <c r="U106" s="68"/>
+      <c r="V106" s="68"/>
+      <c r="W106" s="68"/>
       <c r="X106" s="3"/>
     </row>
     <row r="107" spans="11:24" ht="21" x14ac:dyDescent="0.4">
@@ -23221,20 +23221,20 @@
       <c r="W133" s="10"/>
     </row>
     <row r="134" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L134" s="74" t="s">
+      <c r="L134" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M134" s="74"/>
-      <c r="N134" s="74"/>
-      <c r="O134" s="74"/>
-      <c r="P134" s="74"/>
-      <c r="Q134" s="74"/>
-      <c r="R134" s="74"/>
-      <c r="S134" s="74"/>
-      <c r="T134" s="74"/>
-      <c r="U134" s="74"/>
-      <c r="V134" s="74"/>
-      <c r="W134" s="74"/>
+      <c r="M134" s="69"/>
+      <c r="N134" s="69"/>
+      <c r="O134" s="69"/>
+      <c r="P134" s="69"/>
+      <c r="Q134" s="69"/>
+      <c r="R134" s="69"/>
+      <c r="S134" s="69"/>
+      <c r="T134" s="69"/>
+      <c r="U134" s="69"/>
+      <c r="V134" s="69"/>
+      <c r="W134" s="69"/>
     </row>
     <row r="135" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L135" s="27"/>
@@ -23331,16 +23331,16 @@
       <c r="O138" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P138" s="75" t="s">
+      <c r="P138" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q138" s="75"/>
-      <c r="R138" s="75"/>
-      <c r="S138" s="75"/>
-      <c r="T138" s="75"/>
-      <c r="U138" s="75"/>
-      <c r="V138" s="75"/>
-      <c r="W138" s="75"/>
+      <c r="Q138" s="68"/>
+      <c r="R138" s="68"/>
+      <c r="S138" s="68"/>
+      <c r="T138" s="68"/>
+      <c r="U138" s="68"/>
+      <c r="V138" s="68"/>
+      <c r="W138" s="68"/>
     </row>
     <row r="139" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L139" s="50">
@@ -24585,20 +24585,20 @@
       <c r="W165" s="10"/>
     </row>
     <row r="166" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L166" s="74" t="s">
+      <c r="L166" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="M166" s="74"/>
-      <c r="N166" s="74"/>
-      <c r="O166" s="74"/>
-      <c r="P166" s="74"/>
-      <c r="Q166" s="74"/>
-      <c r="R166" s="74"/>
-      <c r="S166" s="74"/>
-      <c r="T166" s="74"/>
-      <c r="U166" s="74"/>
-      <c r="V166" s="74"/>
-      <c r="W166" s="74"/>
+      <c r="M166" s="69"/>
+      <c r="N166" s="69"/>
+      <c r="O166" s="69"/>
+      <c r="P166" s="69"/>
+      <c r="Q166" s="69"/>
+      <c r="R166" s="69"/>
+      <c r="S166" s="69"/>
+      <c r="T166" s="69"/>
+      <c r="U166" s="69"/>
+      <c r="V166" s="69"/>
+      <c r="W166" s="69"/>
     </row>
     <row r="167" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L167" s="27"/>
@@ -24695,16 +24695,16 @@
       <c r="O170" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P170" s="75" t="s">
+      <c r="P170" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q170" s="75"/>
-      <c r="R170" s="75"/>
-      <c r="S170" s="75"/>
-      <c r="T170" s="75"/>
-      <c r="U170" s="75"/>
-      <c r="V170" s="75"/>
-      <c r="W170" s="75"/>
+      <c r="Q170" s="68"/>
+      <c r="R170" s="68"/>
+      <c r="S170" s="68"/>
+      <c r="T170" s="68"/>
+      <c r="U170" s="68"/>
+      <c r="V170" s="68"/>
+      <c r="W170" s="68"/>
     </row>
     <row r="171" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L171" s="50">
@@ -25949,20 +25949,20 @@
       <c r="W197" s="21"/>
     </row>
     <row r="198" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L198" s="74" t="s">
+      <c r="L198" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="M198" s="74"/>
-      <c r="N198" s="74"/>
-      <c r="O198" s="74"/>
-      <c r="P198" s="74"/>
-      <c r="Q198" s="74"/>
-      <c r="R198" s="74"/>
-      <c r="S198" s="74"/>
-      <c r="T198" s="74"/>
-      <c r="U198" s="74"/>
-      <c r="V198" s="74"/>
-      <c r="W198" s="74"/>
+      <c r="M198" s="69"/>
+      <c r="N198" s="69"/>
+      <c r="O198" s="69"/>
+      <c r="P198" s="69"/>
+      <c r="Q198" s="69"/>
+      <c r="R198" s="69"/>
+      <c r="S198" s="69"/>
+      <c r="T198" s="69"/>
+      <c r="U198" s="69"/>
+      <c r="V198" s="69"/>
+      <c r="W198" s="69"/>
     </row>
     <row r="199" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L199" s="27"/>
@@ -26059,16 +26059,16 @@
       <c r="O202" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P202" s="75" t="s">
+      <c r="P202" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q202" s="75"/>
-      <c r="R202" s="75"/>
-      <c r="S202" s="75"/>
-      <c r="T202" s="75"/>
-      <c r="U202" s="75"/>
-      <c r="V202" s="75"/>
-      <c r="W202" s="75"/>
+      <c r="Q202" s="68"/>
+      <c r="R202" s="68"/>
+      <c r="S202" s="68"/>
+      <c r="T202" s="68"/>
+      <c r="U202" s="68"/>
+      <c r="V202" s="68"/>
+      <c r="W202" s="68"/>
     </row>
     <row r="203" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L203" s="50">
@@ -27313,20 +27313,20 @@
       <c r="W229" s="21"/>
     </row>
     <row r="230" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L230" s="74" t="s">
+      <c r="L230" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="M230" s="74"/>
-      <c r="N230" s="74"/>
-      <c r="O230" s="74"/>
-      <c r="P230" s="74"/>
-      <c r="Q230" s="74"/>
-      <c r="R230" s="74"/>
-      <c r="S230" s="74"/>
-      <c r="T230" s="74"/>
-      <c r="U230" s="74"/>
-      <c r="V230" s="74"/>
-      <c r="W230" s="74"/>
+      <c r="M230" s="69"/>
+      <c r="N230" s="69"/>
+      <c r="O230" s="69"/>
+      <c r="P230" s="69"/>
+      <c r="Q230" s="69"/>
+      <c r="R230" s="69"/>
+      <c r="S230" s="69"/>
+      <c r="T230" s="69"/>
+      <c r="U230" s="69"/>
+      <c r="V230" s="69"/>
+      <c r="W230" s="69"/>
     </row>
     <row r="231" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L231" s="27"/>
@@ -27423,16 +27423,16 @@
       <c r="O234" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P234" s="75" t="s">
+      <c r="P234" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q234" s="75"/>
-      <c r="R234" s="75"/>
-      <c r="S234" s="75"/>
-      <c r="T234" s="75"/>
-      <c r="U234" s="75"/>
-      <c r="V234" s="75"/>
-      <c r="W234" s="75"/>
+      <c r="Q234" s="68"/>
+      <c r="R234" s="68"/>
+      <c r="S234" s="68"/>
+      <c r="T234" s="68"/>
+      <c r="U234" s="68"/>
+      <c r="V234" s="68"/>
+      <c r="W234" s="68"/>
     </row>
     <row r="235" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L235" s="50">
@@ -28677,20 +28677,20 @@
       <c r="W261" s="21"/>
     </row>
     <row r="262" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L262" s="74" t="s">
+      <c r="L262" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="M262" s="74"/>
-      <c r="N262" s="74"/>
-      <c r="O262" s="74"/>
-      <c r="P262" s="74"/>
-      <c r="Q262" s="74"/>
-      <c r="R262" s="74"/>
-      <c r="S262" s="74"/>
-      <c r="T262" s="74"/>
-      <c r="U262" s="74"/>
-      <c r="V262" s="74"/>
-      <c r="W262" s="74"/>
+      <c r="M262" s="69"/>
+      <c r="N262" s="69"/>
+      <c r="O262" s="69"/>
+      <c r="P262" s="69"/>
+      <c r="Q262" s="69"/>
+      <c r="R262" s="69"/>
+      <c r="S262" s="69"/>
+      <c r="T262" s="69"/>
+      <c r="U262" s="69"/>
+      <c r="V262" s="69"/>
+      <c r="W262" s="69"/>
     </row>
     <row r="263" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L263" s="27"/>
@@ -28787,16 +28787,16 @@
       <c r="O266" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P266" s="75" t="s">
+      <c r="P266" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q266" s="75"/>
-      <c r="R266" s="75"/>
-      <c r="S266" s="75"/>
-      <c r="T266" s="75"/>
-      <c r="U266" s="75"/>
-      <c r="V266" s="75"/>
-      <c r="W266" s="75"/>
+      <c r="Q266" s="68"/>
+      <c r="R266" s="68"/>
+      <c r="S266" s="68"/>
+      <c r="T266" s="68"/>
+      <c r="U266" s="68"/>
+      <c r="V266" s="68"/>
+      <c r="W266" s="68"/>
     </row>
     <row r="267" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L267" s="50">
@@ -30041,20 +30041,20 @@
       <c r="W293" s="21"/>
     </row>
     <row r="294" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L294" s="74" t="s">
+      <c r="L294" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="M294" s="74"/>
-      <c r="N294" s="74"/>
-      <c r="O294" s="74"/>
-      <c r="P294" s="74"/>
-      <c r="Q294" s="74"/>
-      <c r="R294" s="74"/>
-      <c r="S294" s="74"/>
-      <c r="T294" s="74"/>
-      <c r="U294" s="74"/>
-      <c r="V294" s="74"/>
-      <c r="W294" s="74"/>
+      <c r="M294" s="69"/>
+      <c r="N294" s="69"/>
+      <c r="O294" s="69"/>
+      <c r="P294" s="69"/>
+      <c r="Q294" s="69"/>
+      <c r="R294" s="69"/>
+      <c r="S294" s="69"/>
+      <c r="T294" s="69"/>
+      <c r="U294" s="69"/>
+      <c r="V294" s="69"/>
+      <c r="W294" s="69"/>
     </row>
     <row r="295" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L295" s="27"/>
@@ -30151,16 +30151,16 @@
       <c r="O298" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P298" s="75" t="s">
+      <c r="P298" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q298" s="75"/>
-      <c r="R298" s="75"/>
-      <c r="S298" s="75"/>
-      <c r="T298" s="75"/>
-      <c r="U298" s="75"/>
-      <c r="V298" s="75"/>
-      <c r="W298" s="75"/>
+      <c r="Q298" s="68"/>
+      <c r="R298" s="68"/>
+      <c r="S298" s="68"/>
+      <c r="T298" s="68"/>
+      <c r="U298" s="68"/>
+      <c r="V298" s="68"/>
+      <c r="W298" s="68"/>
     </row>
     <row r="299" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L299" s="50">
@@ -31405,20 +31405,20 @@
       <c r="W325" s="21"/>
     </row>
     <row r="326" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L326" s="74" t="s">
+      <c r="L326" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="M326" s="74"/>
-      <c r="N326" s="74"/>
-      <c r="O326" s="74"/>
-      <c r="P326" s="74"/>
-      <c r="Q326" s="74"/>
-      <c r="R326" s="74"/>
-      <c r="S326" s="74"/>
-      <c r="T326" s="74"/>
-      <c r="U326" s="74"/>
-      <c r="V326" s="74"/>
-      <c r="W326" s="74"/>
+      <c r="M326" s="69"/>
+      <c r="N326" s="69"/>
+      <c r="O326" s="69"/>
+      <c r="P326" s="69"/>
+      <c r="Q326" s="69"/>
+      <c r="R326" s="69"/>
+      <c r="S326" s="69"/>
+      <c r="T326" s="69"/>
+      <c r="U326" s="69"/>
+      <c r="V326" s="69"/>
+      <c r="W326" s="69"/>
     </row>
     <row r="327" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L327" s="27"/>
@@ -31515,16 +31515,16 @@
       <c r="O330" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P330" s="75" t="s">
+      <c r="P330" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q330" s="75"/>
-      <c r="R330" s="75"/>
-      <c r="S330" s="75"/>
-      <c r="T330" s="75"/>
-      <c r="U330" s="75"/>
-      <c r="V330" s="75"/>
-      <c r="W330" s="75"/>
+      <c r="Q330" s="68"/>
+      <c r="R330" s="68"/>
+      <c r="S330" s="68"/>
+      <c r="T330" s="68"/>
+      <c r="U330" s="68"/>
+      <c r="V330" s="68"/>
+      <c r="W330" s="68"/>
     </row>
     <row r="331" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L331" s="50">
@@ -32769,20 +32769,20 @@
       <c r="W357" s="21"/>
     </row>
     <row r="358" spans="12:23" ht="21" x14ac:dyDescent="0.3">
-      <c r="L358" s="74" t="s">
+      <c r="L358" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="M358" s="74"/>
-      <c r="N358" s="74"/>
-      <c r="O358" s="74"/>
-      <c r="P358" s="74"/>
-      <c r="Q358" s="74"/>
-      <c r="R358" s="74"/>
-      <c r="S358" s="74"/>
-      <c r="T358" s="74"/>
-      <c r="U358" s="74"/>
-      <c r="V358" s="74"/>
-      <c r="W358" s="74"/>
+      <c r="M358" s="69"/>
+      <c r="N358" s="69"/>
+      <c r="O358" s="69"/>
+      <c r="P358" s="69"/>
+      <c r="Q358" s="69"/>
+      <c r="R358" s="69"/>
+      <c r="S358" s="69"/>
+      <c r="T358" s="69"/>
+      <c r="U358" s="69"/>
+      <c r="V358" s="69"/>
+      <c r="W358" s="69"/>
     </row>
     <row r="359" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L359" s="27"/>
@@ -32879,16 +32879,16 @@
       <c r="O362" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P362" s="75" t="s">
+      <c r="P362" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q362" s="75"/>
-      <c r="R362" s="75"/>
-      <c r="S362" s="75"/>
-      <c r="T362" s="75"/>
-      <c r="U362" s="75"/>
-      <c r="V362" s="75"/>
-      <c r="W362" s="75"/>
+      <c r="Q362" s="68"/>
+      <c r="R362" s="68"/>
+      <c r="S362" s="68"/>
+      <c r="T362" s="68"/>
+      <c r="U362" s="68"/>
+      <c r="V362" s="68"/>
+      <c r="W362" s="68"/>
     </row>
     <row r="363" spans="12:23" ht="21" x14ac:dyDescent="0.4">
       <c r="L363" s="50">
@@ -34121,6 +34121,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="L134:W134"/>
+    <mergeCell ref="L166:W166"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="L70:W70"/>
+    <mergeCell ref="L102:W102"/>
     <mergeCell ref="P170:W170"/>
     <mergeCell ref="P138:W138"/>
     <mergeCell ref="P106:W106"/>
@@ -34137,14 +34145,6 @@
     <mergeCell ref="L294:W294"/>
     <mergeCell ref="L326:W326"/>
     <mergeCell ref="P202:W202"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="L134:W134"/>
-    <mergeCell ref="L166:W166"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="L70:W70"/>
-    <mergeCell ref="L102:W102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
